--- a/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4627D118-85E2-4ABF-BC42-CB3595EB6BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDCCD39-C8D2-414B-8F46-6FDFDE357B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D218C4D4-0BCF-4C52-8227-E09D502EF0F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17182359-1AD1-41E4-A369-944CC8EA6953}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="289">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,814 +77,829 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>77,39%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>74,22%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211620E-21D7-467D-BBAC-EAB10B846EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D4171-B1B9-425A-AE71-052B095E4D82}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1504,19 +1519,19 @@
         <v>1778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -1525,13 +1540,13 @@
         <v>22229</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -1540,13 +1555,13 @@
         <v>27343</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -1555,19 +1570,19 @@
         <v>49572</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -1576,13 +1591,13 @@
         <v>113633</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -1591,13 +1606,13 @@
         <v>71688</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -1606,19 +1621,19 @@
         <v>185321</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>106</v>
@@ -1627,13 +1642,13 @@
         <v>237342</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -1642,13 +1657,13 @@
         <v>250713</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>253</v>
@@ -1657,13 +1672,13 @@
         <v>488055</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,13 +1693,13 @@
         <v>375236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -1693,13 +1708,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>377</v>
@@ -1708,18 +1723,18 @@
         <v>730193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1731,13 +1746,13 @@
         <v>1192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1746,13 +1761,13 @@
         <v>1908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1761,13 +1776,13 @@
         <v>3100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1797,13 @@
         <v>6826</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1797,13 +1812,13 @@
         <v>4296</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1812,10 +1827,10 @@
         <v>11122</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>70</v>
@@ -1824,7 +1839,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>22</v>
@@ -1875,7 +1890,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>77</v>
@@ -1926,7 +1941,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>194</v>
@@ -1986,13 +2001,13 @@
         <v>425317</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>458</v>
@@ -2001,13 +2016,13 @@
         <v>496645</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>758</v>
@@ -2016,13 +2031,13 @@
         <v>921962</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2120,13 @@
         <v>3373</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2120,19 +2135,19 @@
         <v>11356</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>34</v>
@@ -2141,13 +2156,13 @@
         <v>34475</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -2156,13 +2171,13 @@
         <v>12977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2171,19 +2186,19 @@
         <v>47452</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>128</v>
@@ -2192,13 +2207,13 @@
         <v>125928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>185</v>
@@ -2207,13 +2222,13 @@
         <v>115226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>313</v>
@@ -2222,19 +2237,19 @@
         <v>241153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>369</v>
@@ -2243,13 +2258,13 @@
         <v>382104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>634</v>
@@ -2258,13 +2273,13 @@
         <v>449326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1003</v>
@@ -2273,13 +2288,13 @@
         <v>831430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2309,13 @@
         <v>554213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>843</v>
@@ -2309,13 +2324,13 @@
         <v>581700</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>1385</v>
@@ -2324,18 +2339,18 @@
         <v>1135913</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2362,13 @@
         <v>1847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2362,13 +2377,13 @@
         <v>2266</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2377,13 +2392,13 @@
         <v>4113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2413,13 @@
         <v>8148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2413,13 +2428,13 @@
         <v>3934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2428,19 +2443,19 @@
         <v>12082</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>26</v>
@@ -2449,13 +2464,13 @@
         <v>27517</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -2464,13 +2479,13 @@
         <v>36464</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -2479,19 +2494,19 @@
         <v>63981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>162</v>
@@ -2500,13 +2515,13 @@
         <v>158122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -2515,13 +2530,13 @@
         <v>156994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
@@ -2530,19 +2545,19 @@
         <v>315116</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>462</v>
@@ -2551,13 +2566,13 @@
         <v>521337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>822</v>
@@ -2566,13 +2581,13 @@
         <v>542944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>1284</v>
@@ -2581,13 +2596,13 @@
         <v>1064281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2617,13 @@
         <v>716971</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>1134</v>
@@ -2617,13 +2632,13 @@
         <v>742602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1794</v>
@@ -2632,18 +2647,18 @@
         <v>1459573</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2655,13 +2670,13 @@
         <v>990</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2676,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2685,13 +2700,13 @@
         <v>1846</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2721,13 @@
         <v>6846</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2721,13 +2736,13 @@
         <v>4614</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2736,19 +2751,19 @@
         <v>11460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>40</v>
@@ -2757,13 +2772,13 @@
         <v>37351</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -2772,13 +2787,13 @@
         <v>21335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>76</v>
@@ -2787,19 +2802,19 @@
         <v>58687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>152</v>
@@ -2814,7 +2829,7 @@
         <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
         <v>236</v>
@@ -2823,13 +2838,13 @@
         <v>135352</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>388</v>
@@ -2838,19 +2853,19 @@
         <v>267772</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>456</v>
@@ -2859,13 +2874,13 @@
         <v>416693</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>715</v>
@@ -2874,13 +2889,13 @@
         <v>429060</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>1171</v>
@@ -2889,13 +2904,13 @@
         <v>845752</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2925,13 @@
         <v>594301</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>996</v>
@@ -2925,13 +2940,13 @@
         <v>591217</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1654</v>
@@ -2940,18 +2955,18 @@
         <v>1185517</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2963,13 +2978,13 @@
         <v>674</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2981,10 +2996,10 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -2993,13 +3008,13 @@
         <v>3044</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3029,13 @@
         <v>5748</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3029,13 +3044,13 @@
         <v>5302</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3044,19 +3059,19 @@
         <v>11051</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>42</v>
@@ -3101,13 +3116,13 @@
         <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>200</v>
@@ -3158,7 +3173,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>769</v>
@@ -3167,13 +3182,13 @@
         <v>512661</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>1256</v>
@@ -3182,13 +3197,13 @@
         <v>781438</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>2025</v>
@@ -3197,13 +3212,13 @@
         <v>1294098</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3233,13 @@
         <v>692182</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>1691</v>
@@ -3233,13 +3248,13 @@
         <v>1014677</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>2711</v>
@@ -3248,13 +3263,13 @@
         <v>1706858</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3286,13 @@
         <v>10298</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -3286,13 +3301,13 @@
         <v>11793</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="M40" s="7">
         <v>23</v>
@@ -3301,13 +3316,13 @@
         <v>22091</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3337,13 @@
         <v>35711</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>33</v>
@@ -3337,13 +3352,13 @@
         <v>23138</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M41" s="7">
         <v>73</v>
@@ -3352,19 +3367,19 @@
         <v>58849</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>175</v>
@@ -3373,13 +3388,13 @@
         <v>182683</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H42" s="7">
         <v>203</v>
@@ -3388,13 +3403,13 @@
         <v>154176</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M42" s="7">
         <v>378</v>
@@ -3403,19 +3418,19 @@
         <v>336859</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>770</v>
@@ -3424,13 +3439,13 @@
         <v>776607</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H43" s="7">
         <v>1163</v>
@@ -3439,13 +3454,13 @@
         <v>761803</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M43" s="7">
         <v>1933</v>
@@ -3454,19 +3469,19 @@
         <v>1538410</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
         <v>2356</v>
@@ -3475,13 +3490,13 @@
         <v>2352921</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>3916</v>
@@ -3490,28 +3505,28 @@
         <v>2830887</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>6272</v>
       </c>
       <c r="N44" s="7">
-        <v>5183808</v>
+        <v>5183809</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3541,13 @@
         <v>3358220</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>5329</v>
@@ -3541,33 +3556,33 @@
         <v>3781797</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>8679</v>
       </c>
       <c r="N45" s="7">
-        <v>7140017</v>
+        <v>7140018</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDCCD39-C8D2-414B-8F46-6FDFDE357B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8719058-D73D-48FB-AAD4-13804E6AE09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17182359-1AD1-41E4-A369-944CC8EA6953}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61AFAFC9-9348-4A16-8783-5CF3A337C781}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D4171-B1B9-425A-AE71-052B095E4D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B73F9A3-B14C-4FEA-940A-56DE9D2FB0ED}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8719058-D73D-48FB-AAD4-13804E6AE09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAD6274-E7A3-47EE-AECB-EB12C9830A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61AFAFC9-9348-4A16-8783-5CF3A337C781}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06183BAB-2A81-4997-B075-24200E587AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="284">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -92,7 +92,7 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -101,16 +101,19 @@
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -119,19 +122,19 @@
     <t>5,92%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>6,79%</t>
@@ -140,7 +143,7 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -149,28 +152,28 @@
     <t>30,28%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
@@ -179,28 +182,28 @@
     <t>63,25%</t>
   </si>
   <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -212,13 +215,13 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -230,595 +233,583 @@
     <t>1,6%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,42%</t>
   </si>
   <si>
     <t>1,07%</t>
@@ -827,7 +818,7 @@
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>6,33%</t>
@@ -836,70 +827,64 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>77,39%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>74,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1314,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B73F9A3-B14C-4FEA-940A-56DE9D2FB0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03C6E4-4F5D-47F5-B4F8-14B3FAE7DC33}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,19 +1504,19 @@
         <v>1778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -1540,13 +1525,13 @@
         <v>22229</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -1555,13 +1540,13 @@
         <v>27343</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>25</v>
@@ -1570,19 +1555,19 @@
         <v>49572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -1591,13 +1576,13 @@
         <v>113633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -1606,13 +1591,13 @@
         <v>71688</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -1621,19 +1606,19 @@
         <v>185321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>106</v>
@@ -1642,13 +1627,13 @@
         <v>237342</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -1657,13 +1642,13 @@
         <v>250713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>253</v>
@@ -1672,13 +1657,13 @@
         <v>488055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,13 +1678,13 @@
         <v>375236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -1708,13 +1693,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>377</v>
@@ -1723,18 +1708,18 @@
         <v>730193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1746,13 +1731,13 @@
         <v>1192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1761,13 +1746,13 @@
         <v>1908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1776,13 +1761,13 @@
         <v>3100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,13 +1782,13 @@
         <v>6826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1812,13 +1797,13 @@
         <v>4296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1827,10 +1812,10 @@
         <v>11122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>70</v>
@@ -1839,7 +1824,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>22</v>
@@ -1890,7 +1875,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>77</v>
@@ -1941,7 +1926,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>194</v>
@@ -2001,13 +1986,13 @@
         <v>425317</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>458</v>
@@ -2016,13 +2001,13 @@
         <v>496645</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>758</v>
@@ -2031,13 +2016,13 @@
         <v>921962</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2105,13 @@
         <v>3373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2135,19 +2120,19 @@
         <v>11356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>34</v>
@@ -2156,13 +2141,13 @@
         <v>34475</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -2171,13 +2156,13 @@
         <v>12977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2186,19 +2171,19 @@
         <v>47452</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>128</v>
@@ -2207,13 +2192,13 @@
         <v>125928</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>185</v>
@@ -2222,13 +2207,13 @@
         <v>115226</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>313</v>
@@ -2237,19 +2222,19 @@
         <v>241153</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>369</v>
@@ -2258,13 +2243,13 @@
         <v>382104</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>634</v>
@@ -2273,13 +2258,13 @@
         <v>449326</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1003</v>
@@ -2288,13 +2273,13 @@
         <v>831430</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2294,13 @@
         <v>554213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>843</v>
@@ -2324,13 +2309,13 @@
         <v>581700</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>1385</v>
@@ -2339,18 +2324,18 @@
         <v>1135913</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2362,13 +2347,13 @@
         <v>1847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2377,13 +2362,13 @@
         <v>2266</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2392,13 +2377,13 @@
         <v>4113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2398,13 @@
         <v>8148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2428,13 +2413,13 @@
         <v>3934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2443,19 +2428,19 @@
         <v>12082</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>26</v>
@@ -2464,13 +2449,13 @@
         <v>27517</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -2479,13 +2464,13 @@
         <v>36464</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -2494,19 +2479,19 @@
         <v>63981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>162</v>
@@ -2515,13 +2500,13 @@
         <v>158122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -2530,13 +2515,13 @@
         <v>156994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
@@ -2545,19 +2530,19 @@
         <v>315116</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>462</v>
@@ -2566,13 +2551,13 @@
         <v>521337</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>822</v>
@@ -2581,13 +2566,13 @@
         <v>542944</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>1284</v>
@@ -2596,13 +2581,13 @@
         <v>1064281</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2602,13 @@
         <v>716971</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>1134</v>
@@ -2632,13 +2617,13 @@
         <v>742602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>1794</v>
@@ -2647,18 +2632,18 @@
         <v>1459573</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2670,13 +2655,13 @@
         <v>990</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2691,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2700,13 +2685,13 @@
         <v>1846</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2706,13 @@
         <v>6846</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2736,13 +2721,13 @@
         <v>4614</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2751,19 +2736,19 @@
         <v>11460</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>40</v>
@@ -2772,13 +2757,13 @@
         <v>37351</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -2787,13 +2772,13 @@
         <v>21335</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>76</v>
@@ -2802,19 +2787,19 @@
         <v>58687</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>152</v>
@@ -2829,7 +2814,7 @@
         <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>236</v>
@@ -2838,13 +2823,13 @@
         <v>135352</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>388</v>
@@ -2853,19 +2838,19 @@
         <v>267772</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>456</v>
@@ -2874,13 +2859,13 @@
         <v>416693</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>715</v>
@@ -2889,13 +2874,13 @@
         <v>429060</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>1171</v>
@@ -2904,13 +2889,13 @@
         <v>845752</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2910,13 @@
         <v>594301</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>996</v>
@@ -2940,13 +2925,13 @@
         <v>591217</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>1654</v>
@@ -2955,18 +2940,18 @@
         <v>1185517</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2978,13 +2963,13 @@
         <v>674</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2996,10 +2981,10 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3008,13 +2993,13 @@
         <v>3044</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3014,13 @@
         <v>5748</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3044,13 +3029,13 @@
         <v>5302</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3059,19 +3044,19 @@
         <v>11051</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>42</v>
@@ -3116,13 +3101,13 @@
         <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>200</v>
@@ -3173,7 +3158,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>769</v>
@@ -3182,13 +3167,13 @@
         <v>512661</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>1256</v>
@@ -3197,13 +3182,13 @@
         <v>781438</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>2025</v>
@@ -3212,13 +3197,13 @@
         <v>1294098</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3218,13 @@
         <v>692182</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>1691</v>
@@ -3248,13 +3233,13 @@
         <v>1014677</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>2711</v>
@@ -3263,13 +3248,13 @@
         <v>1706858</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3271,13 @@
         <v>10298</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="H40" s="7">
         <v>14</v>
@@ -3301,13 +3286,13 @@
         <v>11793</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="M40" s="7">
         <v>23</v>
@@ -3316,13 +3301,13 @@
         <v>22091</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3322,13 @@
         <v>35711</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H41" s="7">
         <v>33</v>
@@ -3352,13 +3337,13 @@
         <v>23138</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M41" s="7">
         <v>73</v>
@@ -3367,19 +3352,19 @@
         <v>58849</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
         <v>175</v>
@@ -3388,13 +3373,13 @@
         <v>182683</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H42" s="7">
         <v>203</v>
@@ -3403,13 +3388,13 @@
         <v>154176</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M42" s="7">
         <v>378</v>
@@ -3418,19 +3403,19 @@
         <v>336859</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>770</v>
@@ -3439,13 +3424,13 @@
         <v>776607</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H43" s="7">
         <v>1163</v>
@@ -3454,13 +3439,13 @@
         <v>761803</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M43" s="7">
         <v>1933</v>
@@ -3469,19 +3454,19 @@
         <v>1538410</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>2356</v>
@@ -3490,13 +3475,13 @@
         <v>2352921</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H44" s="7">
         <v>3916</v>
@@ -3505,28 +3490,28 @@
         <v>2830887</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M44" s="7">
         <v>6272</v>
       </c>
       <c r="N44" s="7">
-        <v>5183809</v>
+        <v>5183808</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3526,13 @@
         <v>3358220</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>5329</v>
@@ -3556,33 +3541,33 @@
         <v>3781797</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>8679</v>
       </c>
       <c r="N45" s="7">
-        <v>7140018</v>
+        <v>7140017</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAD6274-E7A3-47EE-AECB-EB12C9830A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E399D46-5C0F-459A-AC89-C71F1AF52BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06183BAB-2A81-4997-B075-24200E587AC1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{11F86051-5A99-46E2-8563-6F699F0C5C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="317">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -65,826 +65,925 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,8 +1398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03C6E4-4F5D-47F5-B4F8-14B3FAE7DC33}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93C704B-3F52-4FE8-85A8-F73A0D111D0C}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1420,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1872</v>
+        <v>1934</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1435,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3595</v>
+        <v>3238</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1450,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>5467</v>
+        <v>5172</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1471,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1486,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1618</v>
+        <v>1406</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1501,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1778</v>
+        <v>1571</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1522,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>22229</v>
+        <v>19413</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1537,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>27343</v>
+        <v>25567</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1552,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="7">
-        <v>49572</v>
+        <v>44980</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1573,7 +1672,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>113633</v>
+        <v>113345</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1588,7 +1687,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>71688</v>
+        <v>59774</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1603,7 +1702,7 @@
         <v>94</v>
       </c>
       <c r="N7" s="7">
-        <v>185321</v>
+        <v>173119</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -1624,7 +1723,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="7">
-        <v>237342</v>
+        <v>263056</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -1639,7 +1738,7 @@
         <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>250713</v>
+        <v>223216</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1654,7 +1753,7 @@
         <v>253</v>
       </c>
       <c r="N8" s="7">
-        <v>488055</v>
+        <v>486272</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>53</v>
@@ -1675,7 +1774,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>375236</v>
+        <v>397913</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>56</v>
@@ -1690,7 +1789,7 @@
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -1705,7 +1804,7 @@
         <v>377</v>
       </c>
       <c r="N9" s="7">
-        <v>730193</v>
+        <v>711113</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1728,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -1743,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>60</v>
@@ -1758,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>62</v>
@@ -1779,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>6826</v>
+        <v>6567</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -1794,31 +1893,31 @@
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4296</v>
+        <v>3694</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>11122</v>
+        <v>10260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,46 +1929,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>29775</v>
+        <v>30420</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>18279</v>
+        <v>16276</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>48054</v>
+        <v>46696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,46 +1980,46 @@
         <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>104740</v>
+        <v>100089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
       </c>
       <c r="I13" s="7">
-        <v>94754</v>
+        <v>83778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
       </c>
       <c r="N13" s="7">
-        <v>199494</v>
+        <v>183868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,46 +2031,46 @@
         <v>194</v>
       </c>
       <c r="D14" s="7">
-        <v>282784</v>
+        <v>282160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>342</v>
       </c>
       <c r="I14" s="7">
-        <v>377407</v>
+        <v>404084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>536</v>
       </c>
       <c r="N14" s="7">
-        <v>660191</v>
+        <v>686244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,7 +2082,7 @@
         <v>300</v>
       </c>
       <c r="D15" s="7">
-        <v>425317</v>
+        <v>420446</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -1998,7 +2097,7 @@
         <v>458</v>
       </c>
       <c r="I15" s="7">
-        <v>496645</v>
+        <v>509732</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -2013,7 +2112,7 @@
         <v>758</v>
       </c>
       <c r="N15" s="7">
-        <v>921962</v>
+        <v>930178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -2027,7 +2126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2036,43 +2135,43 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3723</v>
+        <v>3813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>4521</v>
+        <v>4579</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>106</v>
@@ -2087,7 +2186,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>7983</v>
+        <v>7817</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2102,7 +2201,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3373</v>
+        <v>3209</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2117,16 +2216,16 @@
         <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>11356</v>
+        <v>11026</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,46 +2237,46 @@
         <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>34475</v>
+        <v>33340</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>12977</v>
+        <v>11733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>47452</v>
+        <v>45073</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,46 +2288,46 @@
         <v>128</v>
       </c>
       <c r="D19" s="7">
-        <v>125928</v>
+        <v>117933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>185</v>
       </c>
       <c r="I19" s="7">
-        <v>115226</v>
+        <v>106065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>313</v>
       </c>
       <c r="N19" s="7">
-        <v>241153</v>
+        <v>223998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,46 +2339,46 @@
         <v>369</v>
       </c>
       <c r="D20" s="7">
-        <v>382104</v>
+        <v>370387</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>634</v>
       </c>
       <c r="I20" s="7">
-        <v>449326</v>
+        <v>419014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1003</v>
       </c>
       <c r="N20" s="7">
-        <v>831430</v>
+        <v>789400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,7 +2390,7 @@
         <v>542</v>
       </c>
       <c r="D21" s="7">
-        <v>554213</v>
+        <v>533289</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>56</v>
@@ -2306,7 +2405,7 @@
         <v>843</v>
       </c>
       <c r="I21" s="7">
-        <v>581700</v>
+        <v>540787</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -2321,7 +2420,7 @@
         <v>1385</v>
       </c>
       <c r="N21" s="7">
-        <v>1135913</v>
+        <v>1074076</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -2335,7 +2434,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2344,46 +2443,46 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1847</v>
+        <v>1735</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>2266</v>
+        <v>2113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>4113</v>
+        <v>3847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,46 +2494,46 @@
         <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>8148</v>
+        <v>7363</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>3934</v>
+        <v>3637</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
       </c>
       <c r="N23" s="7">
-        <v>12082</v>
+        <v>11000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,25 +2545,25 @@
         <v>26</v>
       </c>
       <c r="D24" s="7">
-        <v>27517</v>
+        <v>25512</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
       </c>
       <c r="I24" s="7">
-        <v>36464</v>
+        <v>32200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>159</v>
@@ -2476,16 +2575,16 @@
         <v>73</v>
       </c>
       <c r="N24" s="7">
-        <v>63981</v>
+        <v>57712</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,46 +2596,46 @@
         <v>162</v>
       </c>
       <c r="D25" s="7">
-        <v>158122</v>
+        <v>146607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
       </c>
       <c r="I25" s="7">
-        <v>156994</v>
+        <v>143181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>417</v>
       </c>
       <c r="N25" s="7">
-        <v>315116</v>
+        <v>289788</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,46 +2647,46 @@
         <v>462</v>
       </c>
       <c r="D26" s="7">
-        <v>521337</v>
+        <v>699759</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>822</v>
       </c>
       <c r="I26" s="7">
-        <v>542944</v>
+        <v>527409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>1284</v>
       </c>
       <c r="N26" s="7">
-        <v>1064281</v>
+        <v>1227168</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,7 +2698,7 @@
         <v>660</v>
       </c>
       <c r="D27" s="7">
-        <v>716971</v>
+        <v>880976</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>56</v>
@@ -2614,7 +2713,7 @@
         <v>1134</v>
       </c>
       <c r="I27" s="7">
-        <v>742602</v>
+        <v>708539</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -2629,7 +2728,7 @@
         <v>1794</v>
       </c>
       <c r="N27" s="7">
-        <v>1459573</v>
+        <v>1589515</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -2643,7 +2742,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2652,40 +2751,40 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>855</v>
+        <v>755</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>1846</v>
+        <v>1740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>186</v>
@@ -2703,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>6846</v>
+        <v>6384</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>188</v>
@@ -2712,16 +2811,16 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>4614</v>
+        <v>4286</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>189</v>
@@ -2733,7 +2832,7 @@
         <v>16</v>
       </c>
       <c r="N29" s="7">
-        <v>11460</v>
+        <v>10670</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>191</v>
@@ -2742,7 +2841,7 @@
         <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,25 +2853,25 @@
         <v>40</v>
       </c>
       <c r="D30" s="7">
-        <v>37351</v>
+        <v>34184</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
       </c>
       <c r="I30" s="7">
-        <v>21335</v>
+        <v>19261</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>197</v>
@@ -2784,7 +2883,7 @@
         <v>76</v>
       </c>
       <c r="N30" s="7">
-        <v>58687</v>
+        <v>53446</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>199</v>
@@ -2805,7 +2904,7 @@
         <v>152</v>
       </c>
       <c r="D31" s="7">
-        <v>132420</v>
+        <v>122013</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>202</v>
@@ -2820,7 +2919,7 @@
         <v>236</v>
       </c>
       <c r="I31" s="7">
-        <v>135352</v>
+        <v>122983</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>205</v>
@@ -2835,7 +2934,7 @@
         <v>388</v>
       </c>
       <c r="N31" s="7">
-        <v>267772</v>
+        <v>244996</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>208</v>
@@ -2856,7 +2955,7 @@
         <v>456</v>
       </c>
       <c r="D32" s="7">
-        <v>416693</v>
+        <v>392178</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>211</v>
@@ -2871,31 +2970,31 @@
         <v>715</v>
       </c>
       <c r="I32" s="7">
-        <v>429060</v>
+        <v>395383</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>1171</v>
       </c>
       <c r="N32" s="7">
-        <v>845752</v>
+        <v>787561</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,7 +3006,7 @@
         <v>658</v>
       </c>
       <c r="D33" s="7">
-        <v>594301</v>
+        <v>555745</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>56</v>
@@ -2922,7 +3021,7 @@
         <v>996</v>
       </c>
       <c r="I33" s="7">
-        <v>591217</v>
+        <v>542668</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -2937,7 +3036,7 @@
         <v>1654</v>
       </c>
       <c r="N33" s="7">
-        <v>1185517</v>
+        <v>1098413</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>56</v>
@@ -2951,7 +3050,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2960,46 +3059,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>674</v>
+        <v>725</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>404</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H34" s="7">
-        <v>4</v>
-      </c>
-      <c r="I34" s="7">
-        <v>2371</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1130</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M34" s="7">
-        <v>5</v>
-      </c>
-      <c r="N34" s="7">
-        <v>3044</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,49 +3107,49 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>5748</v>
+        <v>4697</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I35" s="7">
-        <v>5302</v>
+        <v>2521</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N35" s="7">
-        <v>11051</v>
+        <v>7218</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3158,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D36" s="7">
-        <v>31335</v>
+        <v>17869</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>228</v>
@@ -3074,34 +3173,34 @@
         <v>229</v>
       </c>
       <c r="H36" s="7">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I36" s="7">
-        <v>37776</v>
+        <v>19229</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>64</v>
+      </c>
+      <c r="N36" s="7">
+        <v>37098</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M36" s="7">
-        <v>111</v>
-      </c>
-      <c r="N36" s="7">
-        <v>69112</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,10 +3209,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="D37" s="7">
-        <v>141764</v>
+        <v>75519</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>235</v>
@@ -3125,10 +3224,10 @@
         <v>237</v>
       </c>
       <c r="H37" s="7">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="I37" s="7">
-        <v>187790</v>
+        <v>85035</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>238</v>
@@ -3140,10 +3239,10 @@
         <v>240</v>
       </c>
       <c r="M37" s="7">
-        <v>552</v>
+        <v>294</v>
       </c>
       <c r="N37" s="7">
-        <v>329554</v>
+        <v>160555</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>241</v>
@@ -3161,25 +3260,25 @@
         <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>769</v>
+        <v>417</v>
       </c>
       <c r="D38" s="7">
-        <v>512661</v>
+        <v>267678</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>245</v>
       </c>
       <c r="H38" s="7">
-        <v>1256</v>
+        <v>595</v>
       </c>
       <c r="I38" s="7">
-        <v>781438</v>
+        <v>494109</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>246</v>
@@ -3191,10 +3290,10 @@
         <v>248</v>
       </c>
       <c r="M38" s="7">
-        <v>2025</v>
+        <v>1012</v>
       </c>
       <c r="N38" s="7">
-        <v>1294098</v>
+        <v>761787</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>249</v>
@@ -3212,10 +3311,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1020</v>
+        <v>567</v>
       </c>
       <c r="D39" s="7">
-        <v>692182</v>
+        <v>366488</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>56</v>
@@ -3227,10 +3326,10 @@
         <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>1691</v>
+        <v>817</v>
       </c>
       <c r="I39" s="7">
-        <v>1014677</v>
+        <v>601299</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>56</v>
@@ -3242,10 +3341,10 @@
         <v>56</v>
       </c>
       <c r="M39" s="7">
-        <v>2711</v>
+        <v>1384</v>
       </c>
       <c r="N39" s="7">
-        <v>1706858</v>
+        <v>967787</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -3259,55 +3358,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>10298</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="H40" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I40" s="7">
-        <v>11793</v>
+        <v>1832</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="N40" s="7">
-        <v>22091</v>
+        <v>1832</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,49 +3415,49 @@
         <v>19</v>
       </c>
       <c r="C41" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>35711</v>
+        <v>497</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>255</v>
       </c>
       <c r="H41" s="7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I41" s="7">
-        <v>23138</v>
+        <v>2298</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>6</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2795</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M41" s="7">
-        <v>73</v>
-      </c>
-      <c r="N41" s="7">
-        <v>58849</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="P41" s="7" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,49 +3466,49 @@
         <v>26</v>
       </c>
       <c r="C42" s="7">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="D42" s="7">
-        <v>182683</v>
+        <v>10974</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="H42" s="7">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="I42" s="7">
-        <v>154176</v>
+        <v>15185</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>262</v>
       </c>
       <c r="K42" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>47</v>
+      </c>
+      <c r="N42" s="7">
+        <v>26158</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M42" s="7">
-        <v>378</v>
-      </c>
-      <c r="N42" s="7">
-        <v>336859</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,43 +3517,43 @@
         <v>36</v>
       </c>
       <c r="C43" s="7">
-        <v>770</v>
+        <v>84</v>
       </c>
       <c r="D43" s="7">
-        <v>776607</v>
+        <v>53844</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>174</v>
+      </c>
+      <c r="I43" s="7">
+        <v>83124</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H43" s="7">
-        <v>1163</v>
-      </c>
-      <c r="I43" s="7">
-        <v>761803</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>258</v>
+      </c>
+      <c r="N43" s="7">
+        <v>136967</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="M43" s="7">
-        <v>1933</v>
-      </c>
-      <c r="N43" s="7">
-        <v>1538410</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>274</v>
@@ -3469,10 +3568,10 @@
         <v>46</v>
       </c>
       <c r="C44" s="7">
-        <v>2356</v>
+        <v>352</v>
       </c>
       <c r="D44" s="7">
-        <v>2352921</v>
+        <v>213824</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>276</v>
@@ -3484,34 +3583,34 @@
         <v>278</v>
       </c>
       <c r="H44" s="7">
-        <v>3916</v>
+        <v>661</v>
       </c>
       <c r="I44" s="7">
-        <v>2830887</v>
+        <v>319238</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>279</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44" s="7">
-        <v>6272</v>
+        <v>1013</v>
       </c>
       <c r="N44" s="7">
-        <v>5183808</v>
+        <v>533062</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,63 +3619,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>453</v>
+      </c>
+      <c r="D45" s="7">
+        <v>279138</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7">
+        <v>874</v>
+      </c>
+      <c r="I45" s="7">
+        <v>421676</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1327</v>
+      </c>
+      <c r="N45" s="7">
+        <v>700814</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>9</v>
+      </c>
+      <c r="D46" s="7">
+        <v>10402</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="7">
+        <v>14</v>
+      </c>
+      <c r="I46" s="7">
+        <v>11008</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M46" s="7">
+        <v>23</v>
+      </c>
+      <c r="N46" s="7">
+        <v>21410</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7">
+        <v>40</v>
+      </c>
+      <c r="D47" s="7">
+        <v>33489</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H47" s="7">
+        <v>33</v>
+      </c>
+      <c r="I47" s="7">
+        <v>21051</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M47" s="7">
+        <v>73</v>
+      </c>
+      <c r="N47" s="7">
+        <v>54540</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="7">
+        <v>175</v>
+      </c>
+      <c r="D48" s="7">
+        <v>171711</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="7">
+        <v>203</v>
+      </c>
+      <c r="I48" s="7">
+        <v>139451</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M48" s="7">
+        <v>378</v>
+      </c>
+      <c r="N48" s="7">
+        <v>311163</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7">
+        <v>770</v>
+      </c>
+      <c r="D49" s="7">
+        <v>729351</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1163</v>
+      </c>
+      <c r="I49" s="7">
+        <v>683939</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1933</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1413290</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2356</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2489042</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H50" s="7">
+        <v>3916</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2782451</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M50" s="7">
+        <v>6272</v>
+      </c>
+      <c r="N50" s="7">
+        <v>5271493</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3350</v>
       </c>
-      <c r="D45" s="7">
-        <v>3358220</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3433995</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
         <v>5329</v>
       </c>
-      <c r="I45" s="7">
-        <v>3781797</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3637900</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7">
         <v>8679</v>
       </c>
-      <c r="N45" s="7">
-        <v>7140017</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>283</v>
+      <c r="N51" s="7">
+        <v>7071896</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
